--- a/Exercise5_DemoQAForm/ex5.xlsx
+++ b/Exercise5_DemoQAForm/ex5.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
   <si>
     <t>Name of your project</t>
   </si>
@@ -233,184 +233,149 @@
     <t>TC_LOGIN_001</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Brief description of this case: what is tested?&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ex: Verify user can login successfully with valid credentials</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;List all test cases or conditions that must be done before performing this case&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ex:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>- User is on the Login Page
+    <t>Verify user can login successfully with valid credentials</t>
+  </si>
+  <si>
+    <t>- User is on the Login Page
 - The website is accessible and not under maintenance.
 - A valid user account exists and is active.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Describe steps to perform this case&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ex:
-1. Enter valid username into the Username field
+  </si>
+  <si>
+    <t>1. Enter valid username into the Username field
 2. Enter valid password into the Password field
 3. Click the Login button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Data is used to test
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ex:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Username: tomsmith
-Password:SuperSecretPassword!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;Describe results which meet customer's requirement&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ex:
-User is redirected to the secure area, and a success message is displayed: "You logged into a secure area!"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Describe results which meet customer's requirement&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ex: 
-User was logged in successfully. 
-Message displayed correctly</t>
-    </r>
+  </si>
+  <si>
+    <t>Username: validUser
+Password: validPass</t>
+  </si>
+  <si>
+    <t>User is redirected to the dashboard, and a success message is displayed: "You logged into a secure area!"</t>
+  </si>
+  <si>
+    <t>User was logged in successfully. Dashboard loaded and message displayed correctly</t>
   </si>
   <si>
     <t>TC_LOGIN_002</t>
+  </si>
+  <si>
+    <t>Verify login fails with invalid credentials</t>
+  </si>
+  <si>
+    <t>- User is on the Login Page
+- The website is accessible</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username
+2. Enter invalid password
+3. Click the Login button</t>
+  </si>
+  <si>
+    <t>Username: invalidUser
+Password: invalidPass</t>
+  </si>
+  <si>
+    <t>Error message is shown: "Invalid credentials"</t>
+  </si>
+  <si>
+    <t>Error message displayed as expected: "Invalid credentials"</t>
+  </si>
+  <si>
+    <t>Feature: Profile Upload</t>
+  </si>
+  <si>
+    <t>TC_PROFILE_001</t>
+  </si>
+  <si>
+    <t>Verify user can upload a valid profile image</t>
+  </si>
+  <si>
+    <t>- User is logged in
+- On Profile Page</t>
+  </si>
+  <si>
+    <t>1. Click upload button
+2. Select a valid image file
+3. Click save</t>
+  </si>
+  <si>
+    <t>File: sample-image.jpg (valid format and size)</t>
+  </si>
+  <si>
+    <t>Profile picture is uploaded and displayed correctly</t>
+  </si>
+  <si>
+    <t>Profile image uploaded successfully and preview is visible</t>
+  </si>
+  <si>
+    <t>Feature: Course Management</t>
+  </si>
+  <si>
+    <t>TC_COURSE_001</t>
+  </si>
+  <si>
+    <t>Verify user can add a new course successfully</t>
+  </si>
+  <si>
+    <t>- User is logged in
+- On Course Page</t>
+  </si>
+  <si>
+    <t>1. Click 'Add Course'
+2. Enter course name
+3. Click 'Save'</t>
+  </si>
+  <si>
+    <t>Course Name: Java Selenium</t>
+  </si>
+  <si>
+    <t>New course is added and visible in the list</t>
+  </si>
+  <si>
+    <t>Course added successfully and listed on page</t>
+  </si>
+  <si>
+    <t>TC_COURSE_002</t>
+  </si>
+  <si>
+    <t>Verify user can edit an existing course</t>
+  </si>
+  <si>
+    <t>- Course already exists</t>
+  </si>
+  <si>
+    <t>1. Click 'Edit' on existing course
+2. Change course name
+3. Click 'Save'</t>
+  </si>
+  <si>
+    <t>Old Name: Java Selenium
+New Name: Java Advanced</t>
+  </si>
+  <si>
+    <t>Course name is updated in the list</t>
+  </si>
+  <si>
+    <t>Course edited successfully</t>
+  </si>
+  <si>
+    <t>TC_COURSE_003</t>
+  </si>
+  <si>
+    <t>Verify user can delete an existing course</t>
+  </si>
+  <si>
+    <t>1. Click 'Delete' on a course
+2. Confirm deletion</t>
+  </si>
+  <si>
+    <t>Course Name: Java Advanced</t>
+  </si>
+  <si>
+    <t>Course is removed from the list</t>
+  </si>
+  <si>
+    <t>Course deleted successfully</t>
   </si>
 </sst>
 </file>
@@ -423,7 +388,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,20 +410,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color indexed="17"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -611,20 +579,6 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -633,7 +587,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,12 +604,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
@@ -881,36 +829,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,19 +965,19 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,7 +986,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,16 +1010,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1078,90 +1028,90 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,25 +1120,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1513,187 +1467,188 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="22.8181818181818" customWidth="1"/>
-    <col min="2" max="2" width="70.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="95.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="158.727272727273" customWidth="1"/>
-    <col min="5" max="5" width="98.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="108.090909090909" customWidth="1"/>
-    <col min="7" max="7" width="149.636363636364" customWidth="1"/>
+    <col min="1" max="1" width="18.2727272727273" style="8" customWidth="1"/>
+    <col min="2" max="2" width="41.0909090909091" style="8" customWidth="1"/>
+    <col min="3" max="3" width="46.3636363636364" style="8" customWidth="1"/>
+    <col min="4" max="4" width="52.3636363636364" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.9090909090909" style="8" customWidth="1"/>
+    <col min="6" max="6" width="61.9" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.0090909090909" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="31" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" ht="77.5" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="6" ht="62" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="7" ht="77.5" spans="1:10">
+      <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+    <row r="8" ht="77.5" spans="1:10">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1707,13 +1662,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
@@ -1764,53 +1719,257 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="25" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
-    <row r="6" ht="100" spans="1:10">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="72.5" spans="1:12">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" ht="72.5" spans="1:12">
+      <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="58" spans="1:12">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" ht="25" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" ht="43.5" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="58" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="43.5" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
